--- a/RPG/Value setting.xlsx
+++ b/RPG/Value setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python\RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3FA5E-1F6E-4334-A5A2-4A23B9385235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E52B1-5893-45E9-8656-98E3607D4B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{84F677CF-5182-46D2-888B-1287B6B0B622}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84F677CF-5182-46D2-888B-1287B6B0B622}"/>
   </bookViews>
   <sheets>
     <sheet name="玩家職業" sheetId="1" r:id="rId1"/>
@@ -1538,13 +1538,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.625" bestFit="1" customWidth="1"/>
@@ -1572,10 +1571,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>85</v>
@@ -1592,10 +1591,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -1612,10 +1611,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>85</v>
@@ -1645,14 +1644,12 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>

--- a/RPG/Value setting.xlsx
+++ b/RPG/Value setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python\RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E52B1-5893-45E9-8656-98E3607D4B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D69B5-FA6E-49AE-8FE3-8B9B82BB0073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84F677CF-5182-46D2-888B-1287B6B0B622}"/>
   </bookViews>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Slash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>jump_hit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -449,6 +445,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slash</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1551,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>83</v>
@@ -1560,13 +1560,13 @@
         <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,12 +1586,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -1606,12 +1606,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -1626,7 +1626,7 @@
         <v>1.5</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A997644-608A-4543-BDFE-A009AA150B8F}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D48"/>
     </sheetView>
   </sheetViews>

--- a/RPG/Value setting.xlsx
+++ b/RPG/Value setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Python\RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D69B5-FA6E-49AE-8FE3-8B9B82BB0073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F071F4E-88A4-4F3B-89A5-7322D37FFA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84F677CF-5182-46D2-888B-1287B6B0B622}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
